--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col2a1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col2a1-Mag.xlsx
@@ -531,22 +531,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H2">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I2">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J2">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.9381496666666668</v>
+        <v>0.232947</v>
       </c>
       <c r="N2">
-        <v>2.814449</v>
+        <v>0.698841</v>
       </c>
       <c r="O2">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="P2">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="Q2">
-        <v>0.03461615911722223</v>
+        <v>0.014996739615</v>
       </c>
       <c r="R2">
-        <v>0.311545432055</v>
+        <v>0.134970656535</v>
       </c>
       <c r="S2">
-        <v>0.0286119168614179</v>
+        <v>0.02808540935937974</v>
       </c>
       <c r="T2">
-        <v>0.0286119168614179</v>
+        <v>0.02808540935937974</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H3">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I3">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J3">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7885686666666668</v>
+        <v>0.6726793333333333</v>
       </c>
       <c r="N3">
-        <v>2.365706</v>
+        <v>2.018038</v>
       </c>
       <c r="O3">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="P3">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="Q3">
-        <v>0.02909686951888889</v>
+        <v>0.04330597434777778</v>
       </c>
       <c r="R3">
-        <v>0.26187182567</v>
+        <v>0.38975376913</v>
       </c>
       <c r="S3">
-        <v>0.02404995911830611</v>
+        <v>0.08110202940695231</v>
       </c>
       <c r="T3">
-        <v>0.02404995911830611</v>
+        <v>0.08110202940695231</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H4">
         <v>1.436459</v>
       </c>
       <c r="I4">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J4">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.9381496666666668</v>
+        <v>0.232947</v>
       </c>
       <c r="N4">
-        <v>2.814449</v>
+        <v>0.698841</v>
       </c>
       <c r="O4">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="P4">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="Q4">
-        <v>0.4492045106767779</v>
+        <v>0.111539604891</v>
       </c>
       <c r="R4">
-        <v>4.042840596091001</v>
+        <v>1.003856444019</v>
       </c>
       <c r="S4">
-        <v>0.3712890869762456</v>
+        <v>0.2088877678461452</v>
       </c>
       <c r="T4">
-        <v>0.3712890869762456</v>
+        <v>0.2088877678461452</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H5">
         <v>1.436459</v>
       </c>
       <c r="I5">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J5">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7885686666666668</v>
+        <v>0.6726793333333333</v>
       </c>
       <c r="N5">
-        <v>2.365706</v>
+        <v>2.018038</v>
       </c>
       <c r="O5">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="P5">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="Q5">
-        <v>0.3775821861171112</v>
+        <v>0.3220920941602222</v>
       </c>
       <c r="R5">
-        <v>3.398239675054001</v>
+        <v>2.898828847442</v>
       </c>
       <c r="S5">
-        <v>0.3120897983208174</v>
+        <v>0.60320366613965</v>
       </c>
       <c r="T5">
-        <v>0.3120897983208173</v>
+        <v>0.6032036661396499</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H6">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I6">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J6">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.9381496666666668</v>
+        <v>0.232947</v>
       </c>
       <c r="N6">
-        <v>2.814449</v>
+        <v>0.698841</v>
       </c>
       <c r="O6">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="P6">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="Q6">
-        <v>0.1346785771307778</v>
+        <v>0.009895821507</v>
       </c>
       <c r="R6">
-        <v>1.212107194177</v>
+        <v>0.08906239356300001</v>
       </c>
       <c r="S6">
-        <v>0.1113183076964401</v>
+        <v>0.01853257475334575</v>
       </c>
       <c r="T6">
-        <v>0.1113183076964401</v>
+        <v>0.01853257475334575</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H7">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I7">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J7">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7885686666666668</v>
+        <v>0.6726793333333333</v>
       </c>
       <c r="N7">
-        <v>2.365706</v>
+        <v>2.018038</v>
       </c>
       <c r="O7">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="P7">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="Q7">
-        <v>0.1132050777931111</v>
+        <v>0.02857609075933333</v>
       </c>
       <c r="R7">
-        <v>1.018845700138</v>
+        <v>0.257184816834</v>
       </c>
       <c r="S7">
-        <v>0.09356942990521927</v>
+        <v>0.05351637939115243</v>
       </c>
       <c r="T7">
-        <v>0.09356942990521927</v>
+        <v>0.05351637939115243</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H8">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I8">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J8">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.9381496666666668</v>
+        <v>0.232947</v>
       </c>
       <c r="N8">
-        <v>2.814449</v>
+        <v>0.698841</v>
       </c>
       <c r="O8">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="P8">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="Q8">
-        <v>0.03882938927022223</v>
+        <v>0.0009164134980000001</v>
       </c>
       <c r="R8">
-        <v>0.349464503432</v>
+        <v>0.008247721482</v>
       </c>
       <c r="S8">
-        <v>0.03209435379058258</v>
+        <v>0.00171622958686618</v>
       </c>
       <c r="T8">
-        <v>0.03209435379058258</v>
+        <v>0.00171622958686618</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H9">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I9">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J9">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7885686666666668</v>
+        <v>0.6726793333333333</v>
       </c>
       <c r="N9">
-        <v>2.365706</v>
+        <v>2.018038</v>
       </c>
       <c r="O9">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="P9">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="Q9">
-        <v>0.0326383314008889</v>
+        <v>0.002646320497333333</v>
       </c>
       <c r="R9">
-        <v>0.293744982608</v>
+        <v>0.023816884476</v>
       </c>
       <c r="S9">
-        <v>0.02697714733097098</v>
+        <v>0.004955943516508407</v>
       </c>
       <c r="T9">
-        <v>0.02697714733097098</v>
+        <v>0.004955943516508406</v>
       </c>
     </row>
   </sheetData>
